--- a/spliced/struggle/2023-04-11_10-10-49/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-10-49/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,116 @@
         <v>0.6246097087860107</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.2765692472457886</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.626567840576172</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6087272167205811</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.3174972236156463</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.27487576007843</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1149953827261924</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.2593123018741607</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.741895854473114</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.290313720703125</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.6250678896903992</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-3.214983701705933</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.8246681094169617</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.2973386645317077</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-4.603633403778076</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0426078513264656</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.3110831379890442</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-4.220009803771973</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.416138410568237</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.2417499274015426</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-3.320205211639404</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.446528911590576</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.3194825351238251</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.44180828332901</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5250386595726013</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.0740674138069152</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2.8290696144104</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.7684684991836548</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.3081815242767334</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5.233893394470215</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.9094256162643432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
